--- a/WeeklyPlans/Tasks_2025-07-08.xlsx
+++ b/WeeklyPlans/Tasks_2025-07-08.xlsx
@@ -1463,15 +1463,19 @@
       </c>
       <c r="H5" s="22" t="inlineStr">
         <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="I5" s="22" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="J5" s="22" t="inlineStr">
+        <is>
           <t>X</t>
         </is>
       </c>
-      <c r="I5" s="22" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="J5" s="22" t="n"/>
       <c r="K5" s="22" t="n"/>
       <c r="L5" s="22" t="n"/>
       <c r="M5" s="22" t="n"/>
@@ -1512,12 +1516,16 @@
         </is>
       </c>
       <c r="E6" s="22" t="n"/>
-      <c r="F6" s="22" t="n"/>
+      <c r="F6" s="22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="G6" s="22" t="n"/>
       <c r="H6" s="22" t="n"/>
       <c r="I6" s="22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="J6" s="22" t="inlineStr">
@@ -1565,7 +1573,7 @@
       </c>
       <c r="E7" s="22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="F7" s="22" t="inlineStr">
@@ -1591,7 +1599,11 @@
           <t>✓</t>
         </is>
       </c>
-      <c r="M7" s="22" t="n"/>
+      <c r="M7" s="22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N7" s="22" t="n"/>
       <c r="O7" s="1" t="n"/>
       <c r="P7" s="1" t="n"/>
@@ -1615,7 +1627,11 @@
         </is>
       </c>
       <c r="C8" s="22" t="n"/>
-      <c r="D8" s="22" t="n"/>
+      <c r="D8" s="22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="E8" s="22" t="n"/>
       <c r="F8" s="22" t="inlineStr">
         <is>
@@ -1636,7 +1652,7 @@
       </c>
       <c r="K8" s="22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="L8" s="22" t="inlineStr">
@@ -1681,7 +1697,11 @@
           <t>✓</t>
         </is>
       </c>
-      <c r="E9" s="22" t="n"/>
+      <c r="E9" s="22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="F9" s="22" t="n"/>
       <c r="G9" s="22" t="inlineStr">
         <is>
@@ -1702,7 +1722,7 @@
       </c>
       <c r="L9" s="22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="M9" s="22" t="n"/>
@@ -1730,7 +1750,7 @@
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
@@ -1740,7 +1760,11 @@
         </is>
       </c>
       <c r="F10" s="22" t="n"/>
-      <c r="G10" s="22" t="n"/>
+      <c r="G10" s="22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H10" s="22" t="n"/>
       <c r="I10" s="22" t="n"/>
       <c r="J10" s="22" t="n"/>
@@ -1809,7 +1833,11 @@
       </c>
       <c r="I11" s="22" t="n"/>
       <c r="J11" s="22" t="n"/>
-      <c r="K11" s="22" t="n"/>
+      <c r="K11" s="22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L11" s="22" t="n"/>
       <c r="M11" s="22" t="inlineStr">
         <is>
@@ -1818,7 +1846,7 @@
       </c>
       <c r="N11" s="22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="O11" s="1" t="n"/>
@@ -2027,14 +2055,22 @@
       <c r="N22" s="28" t="n"/>
     </row>
     <row r="23" ht="14.25" customHeight="1" s="30" thickBot="1">
-      <c r="B23" s="25" t="n"/>
+      <c r="B23" s="25" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
       <c r="C23" s="15" t="n"/>
       <c r="D23" s="15" t="n"/>
       <c r="E23" s="15" t="n"/>
       <c r="F23" s="15" t="n"/>
       <c r="G23" s="15" t="n"/>
       <c r="H23" s="15" t="n"/>
-      <c r="I23" s="27" t="n"/>
+      <c r="I23" s="27" t="inlineStr">
+        <is>
+          <t>Müllbeutel für Biomüll</t>
+        </is>
+      </c>
       <c r="J23" s="28" t="n"/>
       <c r="K23" s="28" t="n"/>
       <c r="L23" s="28" t="n"/>
